--- a/ValueSet-covid-19-symptoms.xlsx
+++ b/ValueSet-covid-19-symptoms.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/ValueSet-covid-19-symptoms.xlsx
+++ b/ValueSet-covid-19-symptoms.xlsx
@@ -37,13 +37,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Covid19SymptomsSCT</t>
+    <t>COVID19SymptomsSCT</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 symptoms</t>
+    <t>COVID-19 symptoms</t>
   </si>
   <si>
     <t>Status</t>
@@ -76,7 +76,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Symptoms due to COVID19</t>
+    <t>Symptoms due to COVID-19</t>
   </si>
   <si>
     <t>Purpose</t>
